--- a/Documentation/Planning/GanttChart.xlsx
+++ b/Documentation/Planning/GanttChart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +298,11 @@
       <color rgb="FF2FFD39"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -305,8 +310,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2552700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
@@ -314,7 +319,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -322,14 +327,375 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="285750"/>
-          <a:ext cx="0" cy="257175"/>
+        <a:xfrm flipH="1">
+          <a:off x="2552700" y="285750"/>
+          <a:ext cx="666750" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3228975" y="847725"/>
+          <a:ext cx="609600" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4438650" y="1266826"/>
+          <a:ext cx="3057525" cy="752474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4438650" y="1276350"/>
+          <a:ext cx="3038475" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4410075" y="1276350"/>
+          <a:ext cx="3086101" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4438650" y="1438275"/>
+          <a:ext cx="9525" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="1628775"/>
+          <a:ext cx="9525" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="1866900"/>
+          <a:ext cx="0" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -354,29 +720,288 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3838575" y="847725"/>
-          <a:ext cx="0" cy="257175"/>
+        <a:xfrm flipV="1">
+          <a:off x="3838575" y="3352801"/>
+          <a:ext cx="4276725" cy="180974"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6276975" y="2581275"/>
+          <a:ext cx="600075" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6257925" y="2771775"/>
+          <a:ext cx="619125" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096251" y="3733800"/>
+          <a:ext cx="628649" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="1438275"/>
+          <a:ext cx="4867275" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="1628775"/>
+          <a:ext cx="5495925" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -475,6 +1100,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -509,6 +1135,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,20 +1311,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -753,7 +1380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -774,7 +1401,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -795,7 +1422,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -816,7 +1443,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -837,7 +1464,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -858,7 +1485,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -879,7 +1506,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -900,7 +1527,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -921,7 +1548,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -942,7 +1569,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -963,7 +1590,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -984,7 +1611,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1005,7 +1632,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1026,7 +1653,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1047,7 +1674,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1068,7 +1695,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1089,7 +1716,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1110,7 +1737,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1131,7 +1758,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1152,7 +1779,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1173,7 +1800,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
@@ -1194,7 +1821,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1224,24 +1851,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Planning/GanttChart.xlsx
+++ b/Documentation/Planning/GanttChart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Tidsplan</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Uge 20</t>
-  </si>
-  <si>
-    <t>Uge 21</t>
   </si>
   <si>
     <t>Use Cases</t>
@@ -141,8 +138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -226,19 +223,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -267,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -279,13 +263,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,7 +1083,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1135,7 +1117,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1311,25 +1292,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1376,13 +1357,11 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1399,11 +1378,11 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -1420,11 +1399,11 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -1441,11 +1420,11 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
@@ -1462,11 +1441,11 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
@@ -1483,11 +1462,11 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1504,11 +1483,11 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1525,11 +1504,11 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1546,11 +1525,11 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1567,11 +1546,11 @@
       <c r="N10" s="6"/>
       <c r="O10" s="4"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1583,16 +1562,16 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1609,11 +1588,11 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1630,11 +1609,11 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1651,11 +1630,11 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1672,11 +1651,11 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1693,11 +1672,11 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1714,11 +1693,11 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1735,11 +1714,11 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
@@ -1756,11 +1735,11 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1777,11 +1756,11 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1798,11 +1777,11 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1819,56 +1798,56 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="11"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="16"/>
       <c r="R23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
